--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T18:58:55+00:00</t>
+    <t>2022-11-21T14:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:15+00:00</t>
+    <t>2022-11-21T14:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:54+00:00</t>
+    <t>2022-11-21T15:06:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:06:17+00:00</t>
+    <t>2022-11-21T15:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:57:34+00:00</t>
+    <t>2022-11-21T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:58:19+00:00</t>
+    <t>2022-11-21T15:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:59:26+00:00</t>
+    <t>2022-11-21T16:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:10:12+00:00</t>
+    <t>2022-11-21T16:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$113</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4042" uniqueCount="546">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:11:07+00:00</t>
+    <t>2022-11-22T17:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1440,6 +1440,13 @@
   </si>
   <si>
     <t>ResearchStudy.comparisonGroup.extension</t>
+  </si>
+  <si>
+    <t>SoAReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://github.com/alpivonka/FHIR-Base-Clinical-Examples/StructureDefinition/soa-reference}
+</t>
   </si>
   <si>
     <t>ResearchStudy.comparisonGroup.modifierExtension</t>
@@ -1998,7 +2005,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN112"/>
+  <dimension ref="A1:AN113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11321,7 +11328,7 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11343,14 +11350,12 @@
         <v>104</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11387,16 +11392,14 @@
         <v>76</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AE83" t="s" s="2">
         <v>111</v>
@@ -11420,7 +11423,7 @@
         <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
@@ -11431,43 +11434,41 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B84" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>104</v>
+        <v>461</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>231</v>
+        <v>460</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>76</v>
       </c>
@@ -11515,7 +11516,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -11536,7 +11537,7 @@
         <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -11547,39 +11548,43 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>462</v>
+        <v>104</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>463</v>
+        <v>231</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>76</v>
       </c>
@@ -11627,19 +11632,19 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>76</v>
@@ -11648,7 +11653,7 @@
         <v>76</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>76</v>
@@ -11659,7 +11664,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11667,7 +11672,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>85</v>
@@ -11682,13 +11687,13 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>212</v>
+        <v>464</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11739,10 +11744,10 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>85</v>
@@ -11754,7 +11759,7 @@
         <v>123</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>468</v>
+        <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>76</v>
@@ -11766,12 +11771,12 @@
         <v>76</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>469</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11779,7 +11784,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>85</v>
@@ -11794,13 +11799,13 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11827,13 +11832,13 @@
         <v>76</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>76</v>
@@ -11851,10 +11856,10 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>85</v>
@@ -11866,7 +11871,7 @@
         <v>123</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>76</v>
@@ -11878,12 +11883,12 @@
         <v>76</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11906,13 +11911,13 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11939,13 +11944,13 @@
         <v>76</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>76</v>
+        <v>475</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>76</v>
@@ -11963,7 +11968,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -11978,7 +11983,7 @@
         <v>123</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>76</v>
@@ -11990,12 +11995,12 @@
         <v>76</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12006,7 +12011,7 @@
         <v>74</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>76</v>
@@ -12018,18 +12023,16 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>482</v>
+        <v>316</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>485</v>
-      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>76</v>
       </c>
@@ -12077,13 +12080,13 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -12092,7 +12095,7 @@
         <v>123</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>76</v>
+        <v>481</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>76</v>
@@ -12104,12 +12107,12 @@
         <v>76</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>76</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12120,7 +12123,7 @@
         <v>74</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>76</v>
@@ -12132,17 +12135,17 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>76</v>
@@ -12191,13 +12194,13 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -12223,7 +12226,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12234,7 +12237,7 @@
         <v>74</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>76</v>
@@ -12246,16 +12249,18 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>76</v>
       </c>
@@ -12303,13 +12308,13 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
@@ -12318,7 +12323,7 @@
         <v>123</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>493</v>
+        <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>76</v>
@@ -12335,7 +12340,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12346,7 +12351,7 @@
         <v>74</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>76</v>
@@ -12358,13 +12363,13 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>98</v>
+        <v>493</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>99</v>
+        <v>494</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12415,28 +12420,28 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>100</v>
+        <v>492</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>76</v>
+        <v>495</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>76</v>
@@ -12447,18 +12452,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>76</v>
@@ -12470,17 +12475,15 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>76</v>
@@ -12529,19 +12532,19 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>76</v>
@@ -12561,11 +12564,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12578,26 +12581,24 @@
         <v>76</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>104</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="N94" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>76</v>
       </c>
@@ -12645,7 +12646,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
@@ -12666,7 +12667,7 @@
         <v>76</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>76</v>
@@ -12677,39 +12678,43 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>498</v>
+        <v>231</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>76</v>
       </c>
@@ -12757,28 +12762,28 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>497</v>
+        <v>233</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>500</v>
+        <v>76</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -12789,7 +12794,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12812,13 +12817,13 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12845,13 +12850,13 @@
         <v>76</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>504</v>
+        <v>76</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>505</v>
+        <v>76</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>76</v>
@@ -12869,7 +12874,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
@@ -12884,7 +12889,7 @@
         <v>123</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>76</v>
@@ -12901,7 +12906,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12924,13 +12929,13 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12957,13 +12962,13 @@
         <v>76</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>76</v>
+        <v>506</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>76</v>
@@ -12981,7 +12986,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
@@ -12996,7 +13001,7 @@
         <v>123</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>76</v>
+        <v>508</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>76</v>
@@ -13013,7 +13018,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13024,7 +13029,7 @@
         <v>74</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>76</v>
@@ -13036,13 +13041,13 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13093,13 +13098,13 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
@@ -13125,7 +13130,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13136,7 +13141,7 @@
         <v>74</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>76</v>
@@ -13148,13 +13153,13 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>98</v>
+        <v>513</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>99</v>
+        <v>514</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13205,19 +13210,19 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>100</v>
+        <v>512</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>76</v>
@@ -13226,7 +13231,7 @@
         <v>76</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>76</v>
@@ -13237,18 +13242,18 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>76</v>
@@ -13260,17 +13265,15 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>76</v>
@@ -13319,19 +13322,19 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>76</v>
@@ -13351,11 +13354,11 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13368,26 +13371,24 @@
         <v>76</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>104</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="N101" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>76</v>
       </c>
@@ -13435,7 +13436,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -13456,7 +13457,7 @@
         <v>76</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>76</v>
@@ -13467,39 +13468,43 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>517</v>
+        <v>231</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>76</v>
       </c>
@@ -13547,19 +13552,19 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>516</v>
+        <v>233</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>76</v>
@@ -13568,7 +13573,7 @@
         <v>76</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -13579,7 +13584,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13590,7 +13595,7 @@
         <v>74</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>76</v>
@@ -13602,10 +13607,10 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>520</v>
@@ -13635,13 +13640,13 @@
         <v>76</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>505</v>
+        <v>76</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>76</v>
@@ -13659,13 +13664,13 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13702,7 +13707,7 @@
         <v>74</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>76</v>
@@ -13714,13 +13719,13 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13747,13 +13752,13 @@
         <v>76</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -13777,7 +13782,7 @@
         <v>74</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13803,7 +13808,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13826,13 +13831,13 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>482</v>
+        <v>316</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13883,7 +13888,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
@@ -13915,7 +13920,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13926,7 +13931,7 @@
         <v>74</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>76</v>
@@ -13935,16 +13940,16 @@
         <v>76</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13995,13 +14000,13 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>76</v>
@@ -14027,7 +14032,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14047,16 +14052,16 @@
         <v>76</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>224</v>
+        <v>530</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14107,7 +14112,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -14139,7 +14144,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14150,7 +14155,7 @@
         <v>74</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>76</v>
@@ -14162,13 +14167,13 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>98</v>
+        <v>534</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>99</v>
+        <v>535</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14219,19 +14224,19 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>100</v>
+        <v>533</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>76</v>
@@ -14240,7 +14245,7 @@
         <v>76</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14251,18 +14256,18 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>76</v>
@@ -14274,17 +14279,15 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>76</v>
@@ -14333,19 +14336,19 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>76</v>
@@ -14365,11 +14368,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14382,26 +14385,24 @@
         <v>76</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>104</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="N110" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>76</v>
       </c>
@@ -14449,7 +14450,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -14470,7 +14471,7 @@
         <v>76</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>76</v>
@@ -14481,39 +14482,43 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>538</v>
+        <v>231</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>76</v>
       </c>
@@ -14537,13 +14542,13 @@
         <v>76</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>540</v>
+        <v>76</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>76</v>
@@ -14561,19 +14566,19 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>537</v>
+        <v>233</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>76</v>
@@ -14582,7 +14587,7 @@
         <v>76</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>76</v>
@@ -14593,7 +14598,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14601,7 +14606,7 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>85</v>
@@ -14616,13 +14621,13 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14649,13 +14654,13 @@
         <v>76</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>76</v>
+        <v>542</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>76</v>
@@ -14673,10 +14678,10 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>85</v>
@@ -14703,8 +14708,120 @@
         <v>76</v>
       </c>
     </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN112">
+  <autoFilter ref="A1:AN113">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14714,7 +14831,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI111">
+  <conditionalFormatting sqref="A2:AI112">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T17:30:40+00:00</t>
+    <t>2022-11-22T21:05:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T21:05:37+00:00</t>
+    <t>2022-11-28T16:09:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:09:45+00:00</t>
+    <t>2022-11-28T16:23:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:23:56+00:00</t>
+    <t>2022-11-28T16:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:45:04+00:00</t>
+    <t>2022-11-28T18:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:28:29+00:00</t>
+    <t>2022-11-28T18:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:16+00:00</t>
+    <t>2022-11-28T18:44:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:54+00:00</t>
+    <t>2022-11-28T18:46:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:46:24+00:00</t>
+    <t>2022-11-28T18:54:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:54:17+00:00</t>
+    <t>2022-11-28T18:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:57:56+00:00</t>
+    <t>2022-11-28T19:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T19:21:05+00:00</t>
+    <t>2022-11-28T20:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T20:19:31+00:00</t>
+    <t>2022-11-28T21:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:47:14+00:00</t>
+    <t>2022-11-28T21:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:50:18+00:00</t>
+    <t>2022-11-28T22:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T22:13:55+00:00</t>
+    <t>2022-11-29T14:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:31:35+00:00</t>
+    <t>2022-11-29T14:39:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:39:13+00:00</t>
+    <t>2022-11-29T18:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T18:40:08+00:00</t>
+    <t>2022-11-29T19:09:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:09:47+00:00</t>
+    <t>2022-11-29T19:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:18:22+00:00</t>
+    <t>2022-11-29T19:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:32:41+00:00</t>
+    <t>2022-11-29T19:42:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:42:29+00:00</t>
+    <t>2022-11-29T19:57:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-research-study-epoch.xlsx
+++ b/branches/master/StructureDefinition-research-study-epoch.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:57:48+00:00</t>
+    <t>2022-11-29T20:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
